--- a/remote/remote/comm/mapping.xlsx
+++ b/remote/remote/comm/mapping.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="134">
   <si>
     <t xml:space="preserve">Address type</t>
   </si>
@@ -208,81 +208,93 @@
     <t xml:space="preserve">This signal will be True when there will be any error in Pi system or Pi-Camera interfacing</t>
   </si>
   <si>
+    <t xml:space="preserve">D53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reg_pi_Pulsar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Model Selection-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To identify Module-1, this signal will be True, else False</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reg_pi_model_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Model Selection-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To identify Module-2, this signal will be True, else False</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reg_pi_model_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Model Selection-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To identify Module-3, this signal will be True, else False</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reg_pi_CT100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Model Selection-4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To identify Module-4, this signal will be True, else False</t>
+  </si>
+  <si>
     <t xml:space="preserve">D57</t>
   </si>
   <si>
-    <t xml:space="preserve">reg_pi_Pulsar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Model Selection-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">To identify Module-1, this signal will be True, else False</t>
+    <t xml:space="preserve">reg_pi_model_5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Model Selection-5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To identify Module-5, this signal will be True, else False</t>
   </si>
   <si>
     <t xml:space="preserve">D58</t>
   </si>
   <si>
-    <t xml:space="preserve">reg_pi_model_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Model Selection-2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">To identify Module-2, this signal will be True, else False</t>
+    <t xml:space="preserve">reg_pi_model_6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Model Selection-6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To identify Module-6, this signal will be True, else False</t>
   </si>
   <si>
     <t xml:space="preserve">D59</t>
   </si>
   <si>
-    <t xml:space="preserve">reg_pi_model_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Model Selection-3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">To identify Module-3, this signal will be True, else False</t>
+    <t xml:space="preserve">reg_pi_Platina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Model Selection-7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To identify Module-7, this signal will be True, else False</t>
   </si>
   <si>
     <t xml:space="preserve">D60</t>
   </si>
   <si>
-    <t xml:space="preserve">reg_pi_CT100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Model Selection-4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">To identify Module-4, this signal will be True, else False</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reg_pi_model_5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Model Selection-5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">To identify Module-5, this signal will be True, else False</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reg_pi_model_6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Model Selection-6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">To identify Module-6, this signal will be True, else False</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reg_pi_Platina</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Model Selection-7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">To identify Module-7, this signal will be True, else False</t>
-  </si>
-  <si>
     <t xml:space="preserve">reg_pi_V</t>
   </si>
   <si>
@@ -292,6 +304,9 @@
     <t xml:space="preserve">To identify Module-8, this signal will be True, else False</t>
   </si>
   <si>
+    <t xml:space="preserve">D61</t>
+  </si>
+  <si>
     <t xml:space="preserve">reg_pi_model_9</t>
   </si>
   <si>
@@ -301,6 +316,9 @@
     <t xml:space="preserve">To identify Module-9, this signal will be True, else False</t>
   </si>
   <si>
+    <t xml:space="preserve">D62</t>
+  </si>
+  <si>
     <t xml:space="preserve">reg_pi_model_10</t>
   </si>
   <si>
@@ -310,6 +328,9 @@
     <t xml:space="preserve">To identify Module-10, this signal will be True, else False</t>
   </si>
   <si>
+    <t xml:space="preserve">D63</t>
+  </si>
+  <si>
     <t xml:space="preserve">reg_pi_model_11</t>
   </si>
   <si>
@@ -319,6 +340,9 @@
     <t xml:space="preserve">To identify Module-11, this signal will be True, else False</t>
   </si>
   <si>
+    <t xml:space="preserve">D64</t>
+  </si>
+  <si>
     <t xml:space="preserve">reg_pi_model_12</t>
   </si>
   <si>
@@ -328,6 +352,9 @@
     <t xml:space="preserve">To identify Module-12, this signal will be True, else False</t>
   </si>
   <si>
+    <t xml:space="preserve">D65</t>
+  </si>
+  <si>
     <t xml:space="preserve">reg_pi_model_13</t>
   </si>
   <si>
@@ -337,6 +364,9 @@
     <t xml:space="preserve">To identify Module-13, this signal will be True, else False</t>
   </si>
   <si>
+    <t xml:space="preserve">D66</t>
+  </si>
+  <si>
     <t xml:space="preserve">reg_pi_model_14</t>
   </si>
   <si>
@@ -346,6 +376,9 @@
     <t xml:space="preserve">To identify Module-14, this signal will be True, else False</t>
   </si>
   <si>
+    <t xml:space="preserve">D67</t>
+  </si>
+  <si>
     <t xml:space="preserve">reg_pi_model_15</t>
   </si>
   <si>
@@ -355,6 +388,9 @@
     <t xml:space="preserve">To identify Module-15, this signal will be True, else False</t>
   </si>
   <si>
+    <t xml:space="preserve">D68</t>
+  </si>
+  <si>
     <t xml:space="preserve">reg_pi_model_16</t>
   </si>
   <si>
@@ -364,6 +400,9 @@
     <t xml:space="preserve">To identify Module-16, this signal will be True, else False</t>
   </si>
   <si>
+    <t xml:space="preserve">D69</t>
+  </si>
+  <si>
     <t xml:space="preserve">reg_pi_unknown_error</t>
   </si>
   <si>
@@ -371,6 +410,9 @@
   </si>
   <si>
     <t xml:space="preserve">Default handler to denote any read/write or connection or camera or pi power issues</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D70</t>
   </si>
   <si>
     <t xml:space="preserve">reg_pi_last_loop</t>
@@ -602,7 +644,7 @@
   <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B33" activeCellId="0" sqref="B33"/>
+      <selection pane="topLeft" activeCell="C23" activeCellId="0" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1080,16 +1122,16 @@
         <v>56</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>50</v>
+        <v>78</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1100,16 +1142,16 @@
         <v>57</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>54</v>
+        <v>82</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1120,16 +1162,16 @@
         <v>58</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>58</v>
+        <v>86</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1140,16 +1182,16 @@
         <v>59</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>62</v>
+        <v>90</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1160,16 +1202,16 @@
         <v>60</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>66</v>
+        <v>94</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1180,16 +1222,16 @@
         <v>61</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>70</v>
+        <v>98</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1200,16 +1242,16 @@
         <v>62</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>74</v>
+        <v>102</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1220,16 +1262,16 @@
         <v>63</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>50</v>
+        <v>106</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1240,16 +1282,16 @@
         <v>64</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>54</v>
+        <v>110</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1260,16 +1302,16 @@
         <v>65</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>58</v>
+        <v>114</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1280,16 +1322,16 @@
         <v>66</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>62</v>
+        <v>118</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1300,16 +1342,16 @@
         <v>67</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>66</v>
+        <v>122</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1320,16 +1362,16 @@
         <v>68</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>70</v>
+        <v>126</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1340,16 +1382,16 @@
         <v>69</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>74</v>
+        <v>130</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
